--- a/INTLINE/data/134/DEUSTATIS/Arrivals and overnight stays in accommodation establishments.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Arrivals and overnight stays in accommodation establishments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="63">
   <si>
     <t>Arrivals and overnight stays in accommodation
 establishments: Germany, months</t>
@@ -201,7 +201,7 @@
     <t>sites.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:12:00</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:50:39</t>
   </si>
 </sst>
 </file>
@@ -9956,7 +9956,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="364" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="366" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="365" max="365" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
+    <col min="364" max="364" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="363" max="363" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="362" max="362" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="361" max="361" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
@@ -10648,6 +10650,8 @@
     <col min="361" max="361" width="11.0859375" customWidth="true"/>
     <col min="362" max="362" width="11.0859375" customWidth="true"/>
     <col min="363" max="363" width="11.0859375" customWidth="true"/>
+    <col min="364" max="364" width="11.0859375" customWidth="true"/>
+    <col min="365" max="365" width="11.0859375" customWidth="true"/>
     <col min="342" max="342" width="9.98828125" customWidth="true"/>
     <col min="1" max="1" width="15.609375" style="7" customWidth="true"/>
   </cols>
@@ -14124,22 +14128,22 @@
         <v>1.5234651E7</v>
       </c>
       <c r="MV8" t="n" s="10">
-        <v>1.4901682E7</v>
+        <v>1.4901639E7</v>
       </c>
       <c r="MW8" t="n" s="10">
-        <v>8958515.0</v>
+        <v>8958485.0</v>
       </c>
       <c r="MX8" t="n" s="10">
-        <v>5913419.0</v>
+        <v>5913380.0</v>
       </c>
       <c r="MY8" t="n" s="10">
-        <v>5269248.0</v>
-      </c>
-      <c r="MZ8" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NA8" t="s" s="10">
-        <v>52</v>
+        <v>5257410.0</v>
+      </c>
+      <c r="MZ8" t="n" s="10">
+        <v>6468697.0</v>
+      </c>
+      <c r="NA8" t="n" s="10">
+        <v>8950631.0</v>
       </c>
       <c r="NB8" t="s" s="10">
         <v>52</v>
@@ -15248,22 +15252,22 @@
         <v>4.5104863E7</v>
       </c>
       <c r="MV9" t="n" s="10">
-        <v>4.3116803E7</v>
+        <v>4.3105611E7</v>
       </c>
       <c r="MW9" t="n" s="10">
-        <v>2.4494946E7</v>
+        <v>2.4477972E7</v>
       </c>
       <c r="MX9" t="n" s="10">
-        <v>1.7501969E7</v>
+        <v>1.7486819E7</v>
       </c>
       <c r="MY9" t="n" s="10">
-        <v>1.6192473E7</v>
-      </c>
-      <c r="MZ9" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NA9" t="s" s="10">
-        <v>52</v>
+        <v>1.6186009E7</v>
+      </c>
+      <c r="MZ9" t="n" s="10">
+        <v>1.8761148E7</v>
+      </c>
+      <c r="NA9" t="n" s="10">
+        <v>2.5122771E7</v>
       </c>
       <c r="NB9" t="s" s="10">
         <v>52</v>
@@ -15411,7 +15415,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:12:04&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:50:43&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Arrivals and overnight stays in accommodation establishments.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Arrivals and overnight stays in accommodation establishments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="63">
   <si>
     <t>Arrivals and overnight stays in accommodation
 establishments: Germany, months</t>
@@ -201,7 +201,7 @@
     <t>sites.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:50:39</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 07:01:41</t>
   </si>
 </sst>
 </file>
@@ -9956,8 +9956,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="366" max="16384" style="7" width="12.7109375" collapsed="true"/>
-    <col min="365" max="365" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
+    <col min="367" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="366" max="366" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="364" max="364" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="363" max="363" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="362" max="362" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
@@ -10652,6 +10652,7 @@
     <col min="363" max="363" width="11.0859375" customWidth="true"/>
     <col min="364" max="364" width="11.0859375" customWidth="true"/>
     <col min="365" max="365" width="11.0859375" customWidth="true"/>
+    <col min="366" max="366" width="13.5703125" customWidth="true"/>
     <col min="342" max="342" width="9.98828125" customWidth="true"/>
     <col min="1" max="1" width="15.609375" style="7" customWidth="true"/>
   </cols>
@@ -14137,16 +14138,16 @@
         <v>5913380.0</v>
       </c>
       <c r="MY8" t="n" s="10">
-        <v>5257410.0</v>
+        <v>5256130.0</v>
       </c>
       <c r="MZ8" t="n" s="10">
-        <v>6468697.0</v>
+        <v>6465797.0</v>
       </c>
       <c r="NA8" t="n" s="10">
-        <v>8950631.0</v>
-      </c>
-      <c r="NB8" t="s" s="10">
-        <v>52</v>
+        <v>8944327.0</v>
+      </c>
+      <c r="NB8" t="n" s="10">
+        <v>1.2707382E7</v>
       </c>
       <c r="NC8" t="s" s="10">
         <v>52</v>
@@ -15261,16 +15262,16 @@
         <v>1.7486819E7</v>
       </c>
       <c r="MY9" t="n" s="10">
-        <v>1.6186009E7</v>
+        <v>1.6185235E7</v>
       </c>
       <c r="MZ9" t="n" s="10">
-        <v>1.8761148E7</v>
+        <v>1.8761747E7</v>
       </c>
       <c r="NA9" t="n" s="10">
-        <v>2.5122771E7</v>
-      </c>
-      <c r="NB9" t="s" s="10">
-        <v>52</v>
+        <v>2.509607E7</v>
+      </c>
+      <c r="NB9" t="n" s="10">
+        <v>3.5645737E7</v>
       </c>
       <c r="NC9" t="s" s="10">
         <v>52</v>
@@ -15415,7 +15416,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:50:43&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 07:01:45&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>